--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43579,6 +43579,41 @@
         <v>2726000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2945000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43614,6 +43614,41 @@
         <v>2945000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2657000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43649,6 +43649,41 @@
         <v>2657000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2803100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43684,6 +43684,41 @@
         <v>2803100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2936100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43719,6 +43719,41 @@
         <v>2936100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3168800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43754,6 +43754,41 @@
         <v>3168800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2493900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43789,6 +43789,41 @@
         <v>2493900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2965100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43824,6 +43824,41 @@
         <v>2965100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2374600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43859,6 +43859,41 @@
         <v>2374600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3550300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43894,6 +43894,41 @@
         <v>3550300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2721100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43929,6 +43929,41 @@
         <v>2721100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3292000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43964,6 +43964,41 @@
         <v>3292000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2702000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43999,6 +43999,76 @@
         <v>2702000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1719200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1907700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44069,6 +44069,76 @@
         <v>1907700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2792700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1481700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44139,6 +44139,41 @@
         <v>1481700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2799800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44174,6 +44174,41 @@
         <v>2799800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2388500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44209,6 +44209,41 @@
         <v>2388500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1236700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44244,6 +44244,41 @@
         <v>1236700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2924100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44279,6 +44279,76 @@
         <v>2924100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3291500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>976800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44349,6 +44349,41 @@
         <v>976800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2772500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44384,6 +44384,41 @@
         <v>2772500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4833500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2222"/>
+  <dimension ref="A1:I2223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78754,6 +78754,41 @@
         <v>4833500</v>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>1017500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2223"/>
+  <dimension ref="A1:I2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78789,6 +78789,41 @@
         <v>1017500</v>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>3941700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2224"/>
+  <dimension ref="A1:I2225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78824,6 +78824,41 @@
         <v>3941700</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>4081500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2225"/>
+  <dimension ref="A1:I2226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78859,6 +78859,41 @@
         <v>4081500</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>1378700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78894,6 +78894,41 @@
         <v>1378700</v>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>4051100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78929,6 +78929,41 @@
         <v>4051100</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>4388800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2228"/>
+  <dimension ref="A1:I2229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78964,6 +78964,41 @@
         <v>4388800</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>1336900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2229"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78999,6 +78999,41 @@
         <v>1336900</v>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>3663800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79034,6 +79034,41 @@
         <v>3663800</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>3887000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2231"/>
+  <dimension ref="A1:I2232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79069,6 +79069,41 @@
         <v>3887000</v>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>1210500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79104,6 +79104,41 @@
         <v>1210500</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>2885500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2233"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79139,6 +79139,41 @@
         <v>2885500</v>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>4500600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79174,6 +79174,41 @@
         <v>4500600</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>1646600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79209,6 +79209,41 @@
         <v>1646600</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>2194700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79244,6 +79244,41 @@
         <v>2194700</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>3648700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2663"/>
+  <dimension ref="A1:I2664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94189,6 +94189,41 @@
         <v>3648700</v>
       </c>
     </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2664" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2664" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2664" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2664" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2664" t="n">
+        <v>1599600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2664"/>
+  <dimension ref="A1:I2665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94224,6 +94224,41 @@
         <v>1599600</v>
       </c>
     </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2665" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2665" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2665" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2665" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2665" t="n">
+        <v>2980500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2665"/>
+  <dimension ref="A1:I2666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94259,6 +94259,41 @@
         <v>2980500</v>
       </c>
     </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2666" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2666" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2666" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2666" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2666" t="n">
+        <v>2927200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2666"/>
+  <dimension ref="A1:I2667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94294,6 +94294,41 @@
         <v>2927200</v>
       </c>
     </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2667" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2667" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2667" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2667" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2667" t="n">
+        <v>2071700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2667"/>
+  <dimension ref="A1:I2668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94329,6 +94329,41 @@
         <v>2071700</v>
       </c>
     </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2668" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2668" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2668" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2668" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2668" t="n">
+        <v>3238600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2668"/>
+  <dimension ref="A1:I2669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94364,6 +94364,41 @@
         <v>3238600</v>
       </c>
     </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2669" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2669" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2669" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2669" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2669" t="n">
+        <v>2983900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2669"/>
+  <dimension ref="A1:I2670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94399,6 +94399,41 @@
         <v>2983900</v>
       </c>
     </row>
+    <row r="2670">
+      <c r="A2670" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2670" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2670" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2670" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2670" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2670" t="n">
+        <v>3178600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2670"/>
+  <dimension ref="A1:I2671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94434,6 +94434,41 @@
         <v>3178600</v>
       </c>
     </row>
+    <row r="2671">
+      <c r="A2671" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2671" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2671" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2671" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2671" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2671" t="n">
+        <v>3558600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2671"/>
+  <dimension ref="A1:I2672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94469,6 +94469,41 @@
         <v>3558600</v>
       </c>
     </row>
+    <row r="2672">
+      <c r="A2672" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2672" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2672" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2672" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2672" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2672" t="n">
+        <v>4223400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2672"/>
+  <dimension ref="A1:I2673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94504,6 +94504,41 @@
         <v>4223400</v>
       </c>
     </row>
+    <row r="2673">
+      <c r="A2673" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2673" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2673" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2673" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2673" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2673" t="n">
+        <v>3422400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2673"/>
+  <dimension ref="A1:I2675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94539,6 +94539,76 @@
         <v>3422400</v>
       </c>
     </row>
+    <row r="2674">
+      <c r="A2674" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2674" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2674" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2674" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2674" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2674" t="n">
+        <v>3142300</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2675" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2675" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2675" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2675" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2675" t="n">
+        <v>2682000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2675"/>
+  <dimension ref="A1:I2676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94609,6 +94609,41 @@
         <v>2682000</v>
       </c>
     </row>
+    <row r="2676">
+      <c r="A2676" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2676" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2676" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2676" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2676" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2676" t="n">
+        <v>3715100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2676"/>
+  <dimension ref="A1:I2679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94644,6 +94644,111 @@
         <v>3715100</v>
       </c>
     </row>
+    <row r="2677">
+      <c r="A2677" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2677" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2677" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2677" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2677" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2677" t="n">
+        <v>2242300</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2678" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2678" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2678" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2678" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2678" t="n">
+        <v>2883000</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2679" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2679" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2679" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2679" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2679" t="n">
+        <v>4771300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2679"/>
+  <dimension ref="A1:I2680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94749,6 +94749,41 @@
         <v>4771300</v>
       </c>
     </row>
+    <row r="2680">
+      <c r="A2680" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2680" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2680" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2680" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2680" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2680" t="n">
+        <v>2693400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2680"/>
+  <dimension ref="A1:I2681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94784,6 +94784,41 @@
         <v>2693400</v>
       </c>
     </row>
+    <row r="2681">
+      <c r="A2681" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2681" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2681" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2681" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2681" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2681" t="n">
+        <v>2420300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0129.xlsx
+++ b/data/0129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2681"/>
+  <dimension ref="A1:I2684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94819,6 +94819,111 @@
         <v>2420300</v>
       </c>
     </row>
+    <row r="2682">
+      <c r="A2682" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2682" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2682" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2682" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2682" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2682" t="n">
+        <v>1752800</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2683" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2683" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2683" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2683" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2683" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2683" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2683" t="n">
+        <v>972500</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D2684" t="inlineStr">
+        <is>
+          <t>SRIDGE</t>
+        </is>
+      </c>
+      <c r="E2684" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2684" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2684" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2684" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2684" t="n">
+        <v>1151700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
